--- a/SFMC_Training/DE_Docu.xlsx
+++ b/SFMC_Training/DE_Docu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jojoson\Downloads\juju_sfmc-main\juju_sfmc-main\SFMC_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055B1546-2820-421B-8292-6311A7A43B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF90C2F9-6DDA-4305-82EB-201CC99AD3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>en-PH</t>
   </si>
   <si>
-    <t>4,2</t>
-  </si>
-  <si>
     <t>TotalQuizScore</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>FinalRemark</t>
+  </si>
+  <si>
+    <t>6,2</t>
   </si>
 </sst>
 </file>
@@ -382,9 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,6 +389,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A160" sqref="A2:A166"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>21</v>
@@ -718,14 +718,14 @@
         <v>34</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="b">
+      <c r="B2" s="18" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -747,8 +747,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,8 +768,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -789,8 +789,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -810,8 +810,8 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,8 +831,8 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,8 +852,8 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -875,8 +875,8 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,14 +890,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,8 +917,8 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,8 +938,8 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
@@ -959,8 +959,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
@@ -974,14 +974,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1016,14 +1016,14 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,14 +1037,14 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1058,14 +1058,14 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1079,14 +1079,14 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1100,14 +1100,14 @@
         <v>1</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,14 +1121,14 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1142,16 +1142,16 @@
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="19" t="b">
+      <c r="A22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="18" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1173,8 +1173,8 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1194,8 +1194,8 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,8 +1215,8 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1236,8 +1236,8 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1257,8 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1278,8 +1278,8 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1301,8 +1301,8 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,14 +1316,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1343,8 +1343,8 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1364,8 +1364,8 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1385,8 +1385,8 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1400,14 +1400,14 @@
         <v>1</v>
       </c>
       <c r="G33" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1427,8 +1427,8 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1442,14 +1442,14 @@
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1463,14 @@
         <v>1</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,16 +1484,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>0</v>
@@ -1505,18 +1505,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="3" t="b">
         <v>0</v>
@@ -1528,18 +1528,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3" t="b">
         <v>0</v>
@@ -1551,16 +1551,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1574,14 +1574,14 @@
         <v>1</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
@@ -1595,16 +1595,16 @@
         <v>1</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3" t="b">
         <v>0</v>
@@ -1616,18 +1616,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" s="3" t="b">
         <v>0</v>
@@ -1639,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1662,16 +1662,16 @@
         <v>1</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3" t="b">
         <v>0</v>
@@ -1683,18 +1683,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="3" t="b">
         <v>0</v>
@@ -1706,16 +1706,16 @@
         <v>1</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1729,16 +1729,16 @@
         <v>1</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="3" t="b">
         <v>0</v>
@@ -1750,18 +1750,18 @@
         <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="b">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>1</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
@@ -1800,12 +1800,12 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="5" t="s">
         <v>20</v>
       </c>
@@ -1823,14 +1823,14 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="19" t="b">
+      <c r="A53" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="18" t="b">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1852,8 +1852,8 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1873,8 +1873,8 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="18"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +1915,8 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
@@ -1936,8 +1936,8 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
@@ -1957,8 +1957,8 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="1" t="s">
         <v>32</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
@@ -1995,14 +1995,14 @@
         <v>1</v>
       </c>
       <c r="G60" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2022,8 +2022,8 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
@@ -2043,8 +2043,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
@@ -2064,8 +2064,8 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
@@ -2079,14 +2079,14 @@
         <v>1</v>
       </c>
       <c r="G64" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
@@ -2106,10 +2106,10 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D66" s="4" t="b">
         <v>0</v>
@@ -2121,18 +2121,18 @@
         <v>1</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="4" t="b">
         <v>0</v>
@@ -2144,18 +2144,18 @@
         <v>1</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="4" t="b">
         <v>0</v>
@@ -2171,12 +2171,12 @@
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="1" t="s">
         <v>12</v>
       </c>
@@ -2190,14 +2190,14 @@
         <v>1</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="1" t="s">
         <v>13</v>
       </c>
@@ -2211,14 +2211,14 @@
         <v>1</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="8" t="s">
         <v>14</v>
       </c>
@@ -2232,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" s="8" t="b">
         <v>0</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73" s="8" t="b">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>1</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="18"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="8" t="b">
         <v>0</v>
@@ -2295,14 +2295,14 @@
         <v>1</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="18"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="8" t="s">
         <v>15</v>
       </c>
@@ -2316,14 +2316,14 @@
         <v>1</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="8" t="s">
         <v>16</v>
       </c>
@@ -2337,16 +2337,16 @@
         <v>1</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="18"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" s="8" t="b">
         <v>0</v>
@@ -2358,16 +2358,16 @@
         <v>1</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="18"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D78" s="8" t="b">
         <v>0</v>
@@ -2379,14 +2379,14 @@
         <v>1</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="18"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="8" t="s">
         <v>17</v>
       </c>
@@ -2400,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" s="8" t="b">
         <v>0</v>
@@ -2421,16 +2421,16 @@
         <v>1</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="18"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D81" s="8" t="b">
         <v>0</v>
@@ -2442,14 +2442,14 @@
         <v>1</v>
       </c>
       <c r="G81" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="8" t="s">
         <v>18</v>
       </c>
@@ -2463,16 +2463,16 @@
         <v>1</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83" s="8" t="b">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>1</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="18"/>
-      <c r="B84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D84" s="8" t="b">
         <v>0</v>
@@ -2505,14 +2505,14 @@
         <v>1</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="18"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="8" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2532,8 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="18"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="8" t="s">
         <v>20</v>
       </c>
@@ -2553,10 +2553,10 @@
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="19" t="b">
+      <c r="A87" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="18" t="b">
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2575,13 +2575,13 @@
         <v>50</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="19" t="s">
-        <v>54</v>
+      <c r="I87" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="18"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
@@ -2598,11 +2598,11 @@
         <v>12</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="20"/>
+      <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="18"/>
-      <c r="B89" s="20"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
@@ -2619,11 +2619,11 @@
         <v>50</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="20"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="18"/>
-      <c r="B90" s="20"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
@@ -2640,11 +2640,11 @@
         <v>50</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="20"/>
+      <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="18"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
@@ -2661,11 +2661,11 @@
         <v>4</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="20"/>
+      <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="18"/>
-      <c r="B92" s="20"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
@@ -2682,11 +2682,11 @@
         <v>254</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="20"/>
+      <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="18"/>
-      <c r="B93" s="20"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,11 +2705,11 @@
       <c r="H93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I93" s="20"/>
+      <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="18"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
@@ -2723,14 +2723,14 @@
         <v>1</v>
       </c>
       <c r="G94" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="20"/>
+      <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="18"/>
-      <c r="B95" s="20"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="1" t="s">
         <v>7</v>
       </c>
@@ -2747,11 +2747,11 @@
         <v>100</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="20"/>
+      <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="18"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
@@ -2768,11 +2768,11 @@
         <v>6</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="20"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="18"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="1" t="s">
         <v>9</v>
       </c>
@@ -2789,11 +2789,11 @@
         <v>4</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="20"/>
+      <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="18"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="1" t="s">
         <v>10</v>
       </c>
@@ -2807,14 +2807,14 @@
         <v>1</v>
       </c>
       <c r="G98" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="20"/>
+      <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="18"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="1" t="s">
         <v>11</v>
       </c>
@@ -2831,35 +2831,35 @@
         <v>100</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="20"/>
+      <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="18"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="19"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="21"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F100" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H100" s="1"/>
-      <c r="I100" s="20"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="18"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D101" s="8" t="b">
         <v>0</v>
       </c>
@@ -2870,16 +2870,16 @@
         <v>1</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="20"/>
+      <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="18"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D102" s="8" t="b">
         <v>0</v>
@@ -2894,11 +2894,11 @@
         <v>10</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="20"/>
+      <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="18"/>
-      <c r="B103" s="20"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="1" t="s">
         <v>12</v>
       </c>
@@ -2912,14 +2912,14 @@
         <v>1</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="20"/>
+      <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="18"/>
-      <c r="B104" s="20"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="1" t="s">
         <v>13</v>
       </c>
@@ -2933,14 +2933,14 @@
         <v>1</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="I104" s="20"/>
+      <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="18"/>
-      <c r="B105" s="20"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="8" t="s">
         <v>14</v>
       </c>
@@ -2954,59 +2954,59 @@
         <v>1</v>
       </c>
       <c r="G105" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="19"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="21"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="18"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="8" t="s">
+      <c r="D106" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="19"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="21"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" s="8"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="18"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="19"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="21"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D107" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="18"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D108" s="8" t="b">
         <v>0</v>
       </c>
@@ -3017,14 +3017,14 @@
         <v>1</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H108" s="8"/>
-      <c r="I108" s="20"/>
+      <c r="I108" s="19"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="8" t="s">
         <v>15</v>
       </c>
@@ -3038,14 +3038,14 @@
         <v>1</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H109" s="8"/>
-      <c r="I109" s="20"/>
+      <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="18"/>
-      <c r="B110" s="20"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="8" t="s">
         <v>16</v>
       </c>
@@ -3059,38 +3059,38 @@
         <v>1</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H110" s="8"/>
-      <c r="I110" s="20"/>
+      <c r="I110" s="19"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="18"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="19"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="21"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="20"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="18"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D112" s="8" t="b">
         <v>0</v>
       </c>
@@ -3101,14 +3101,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H112" s="8"/>
-      <c r="I112" s="20"/>
+      <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="18"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="8" t="s">
         <v>17</v>
       </c>
@@ -3122,38 +3122,38 @@
         <v>1</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H113" s="8"/>
-      <c r="I113" s="20"/>
+      <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114" s="18"/>
-      <c r="B114" s="20"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="19"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="21"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D114" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H114" s="8"/>
-      <c r="I114" s="20"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="18"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D115" s="8" t="b">
         <v>0</v>
       </c>
@@ -3164,14 +3164,14 @@
         <v>1</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H115" s="8"/>
-      <c r="I115" s="20"/>
+      <c r="I115" s="19"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="18"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="8" t="s">
         <v>18</v>
       </c>
@@ -3185,38 +3185,38 @@
         <v>1</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H116" s="8"/>
-      <c r="I116" s="20"/>
+      <c r="I116" s="19"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="18"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="21"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="19"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="21"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H117" s="8"/>
-      <c r="I117" s="20"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="18"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D118" s="8" t="b">
         <v>0</v>
       </c>
@@ -3227,14 +3227,14 @@
         <v>1</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H118" s="8"/>
-      <c r="I118" s="20"/>
+      <c r="I118" s="19"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="18"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="21"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="8" t="s">
         <v>19</v>
       </c>
@@ -3251,11 +3251,11 @@
         <v>33</v>
       </c>
       <c r="H119" s="8"/>
-      <c r="I119" s="20"/>
+      <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="18"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="21"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="8" t="s">
         <v>20</v>
       </c>
@@ -3272,13 +3272,13 @@
         <v>33</v>
       </c>
       <c r="H120" s="8"/>
-      <c r="I120" s="21"/>
+      <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="19" t="b">
+      <c r="A121" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="18" t="b">
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3297,13 +3297,13 @@
         <v>50</v>
       </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="19" t="s">
-        <v>57</v>
+      <c r="I121" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="18"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="1" t="s">
         <v>1</v>
       </c>
@@ -3320,11 +3320,11 @@
         <v>12</v>
       </c>
       <c r="H122" s="1"/>
-      <c r="I122" s="20"/>
+      <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123" s="18"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="21"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
@@ -3341,11 +3341,11 @@
         <v>50</v>
       </c>
       <c r="H123" s="1"/>
-      <c r="I123" s="20"/>
+      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124" s="18"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="21"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
@@ -3362,11 +3362,11 @@
         <v>50</v>
       </c>
       <c r="H124" s="1"/>
-      <c r="I124" s="20"/>
+      <c r="I124" s="19"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="18"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="1" t="s">
         <v>4</v>
       </c>
@@ -3383,11 +3383,11 @@
         <v>4</v>
       </c>
       <c r="H125" s="1"/>
-      <c r="I125" s="20"/>
+      <c r="I125" s="19"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126" s="18"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="21"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="1" t="s">
         <v>5</v>
       </c>
@@ -3404,11 +3404,11 @@
         <v>254</v>
       </c>
       <c r="H126" s="1"/>
-      <c r="I126" s="20"/>
+      <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="18"/>
-      <c r="B127" s="20"/>
+      <c r="A127" s="21"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="1" t="s">
         <v>32</v>
       </c>
@@ -3427,11 +3427,11 @@
       <c r="H127" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I127" s="20"/>
+      <c r="I127" s="19"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" s="18"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="21"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="1" t="s">
         <v>6</v>
       </c>
@@ -3445,14 +3445,14 @@
         <v>1</v>
       </c>
       <c r="G128" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H128" s="1"/>
-      <c r="I128" s="20"/>
+      <c r="I128" s="19"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" s="18"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="21"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="1" t="s">
         <v>7</v>
       </c>
@@ -3469,11 +3469,11 @@
         <v>100</v>
       </c>
       <c r="H129" s="1"/>
-      <c r="I129" s="20"/>
+      <c r="I129" s="19"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" s="18"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="1" t="s">
         <v>8</v>
       </c>
@@ -3490,11 +3490,11 @@
         <v>6</v>
       </c>
       <c r="H130" s="1"/>
-      <c r="I130" s="20"/>
+      <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="18"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="1" t="s">
         <v>9</v>
       </c>
@@ -3511,11 +3511,11 @@
         <v>4</v>
       </c>
       <c r="H131" s="1"/>
-      <c r="I131" s="20"/>
+      <c r="I131" s="19"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" s="18"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="21"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="1" t="s">
         <v>10</v>
       </c>
@@ -3529,14 +3529,14 @@
         <v>1</v>
       </c>
       <c r="G132" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H132" s="1"/>
-      <c r="I132" s="20"/>
+      <c r="I132" s="19"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="18"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="1" t="s">
         <v>11</v>
       </c>
@@ -3553,35 +3553,35 @@
         <v>100</v>
       </c>
       <c r="H133" s="1"/>
-      <c r="I133" s="20"/>
+      <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="18"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="19"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="21"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D134" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F134" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H134" s="1"/>
-      <c r="I134" s="20"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="18"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D135" s="8" t="b">
         <v>0</v>
       </c>
@@ -3592,16 +3592,16 @@
         <v>1</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H135" s="1"/>
-      <c r="I135" s="20"/>
+      <c r="I135" s="19"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="18"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D136" s="8" t="b">
         <v>0</v>
@@ -3616,11 +3616,11 @@
         <v>10</v>
       </c>
       <c r="H136" s="1"/>
-      <c r="I136" s="20"/>
+      <c r="I136" s="19"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="18"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="21"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="1" t="s">
         <v>12</v>
       </c>
@@ -3634,14 +3634,14 @@
         <v>1</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H137" s="1"/>
-      <c r="I137" s="20"/>
+      <c r="I137" s="19"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="18"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="21"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="1" t="s">
         <v>13</v>
       </c>
@@ -3655,14 +3655,14 @@
         <v>1</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H138" s="1"/>
-      <c r="I138" s="20"/>
+      <c r="I138" s="19"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="18"/>
-      <c r="B139" s="20"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="8" t="s">
         <v>14</v>
       </c>
@@ -3676,59 +3676,59 @@
         <v>1</v>
       </c>
       <c r="G139" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="I139" s="19"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="21"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H139" s="8"/>
-      <c r="I139" s="20"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="18"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="8" t="s">
+      <c r="D140" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H140" s="8"/>
+      <c r="I140" s="19"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="21"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D140" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H140" s="8"/>
-      <c r="I140" s="20"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" s="18"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="8" t="s">
+      <c r="D141" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H141" s="8"/>
+      <c r="I141" s="19"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="21"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D141" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H141" s="8"/>
-      <c r="I141" s="20"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" s="18"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D142" s="8" t="b">
         <v>0</v>
       </c>
@@ -3739,14 +3739,14 @@
         <v>1</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H142" s="8"/>
-      <c r="I142" s="20"/>
+      <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" s="18"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="21"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="8" t="s">
         <v>15</v>
       </c>
@@ -3760,14 +3760,14 @@
         <v>1</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H143" s="8"/>
-      <c r="I143" s="20"/>
+      <c r="I143" s="19"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" s="18"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="8" t="s">
         <v>16</v>
       </c>
@@ -3781,38 +3781,38 @@
         <v>1</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H144" s="8"/>
-      <c r="I144" s="20"/>
+      <c r="I144" s="19"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" s="18"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" s="8"/>
+      <c r="I145" s="19"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="21"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F145" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H145" s="8"/>
-      <c r="I145" s="20"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" s="18"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D146" s="8" t="b">
         <v>0</v>
       </c>
@@ -3823,14 +3823,14 @@
         <v>1</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H146" s="8"/>
-      <c r="I146" s="20"/>
+      <c r="I146" s="19"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" s="18"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="8" t="s">
         <v>17</v>
       </c>
@@ -3844,38 +3844,38 @@
         <v>1</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H147" s="8"/>
-      <c r="I147" s="20"/>
+      <c r="I147" s="19"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" s="18"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H148" s="8"/>
+      <c r="I148" s="19"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="21"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D148" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F148" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H148" s="8"/>
-      <c r="I148" s="20"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" s="18"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D149" s="8" t="b">
         <v>0</v>
       </c>
@@ -3886,14 +3886,14 @@
         <v>1</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H149" s="8"/>
-      <c r="I149" s="20"/>
+      <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="18"/>
-      <c r="B150" s="20"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="8" t="s">
         <v>18</v>
       </c>
@@ -3907,38 +3907,38 @@
         <v>1</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H150" s="8"/>
-      <c r="I150" s="20"/>
+      <c r="I150" s="19"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" s="18"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H151" s="8"/>
+      <c r="I151" s="19"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="21"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F151" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H151" s="8"/>
-      <c r="I151" s="20"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" s="18"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="D152" s="8" t="b">
         <v>0</v>
       </c>
@@ -3949,14 +3949,14 @@
         <v>1</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H152" s="8"/>
-      <c r="I152" s="20"/>
+      <c r="I152" s="19"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" s="18"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="21"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="8" t="s">
         <v>19</v>
       </c>
@@ -3973,11 +3973,11 @@
         <v>33</v>
       </c>
       <c r="H153" s="8"/>
-      <c r="I153" s="20"/>
+      <c r="I153" s="19"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" s="18"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="21"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="8" t="s">
         <v>20</v>
       </c>
@@ -3994,23 +3994,23 @@
         <v>33</v>
       </c>
       <c r="H154" s="8"/>
-      <c r="I154" s="21"/>
+      <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B155" s="18" t="b">
+      <c r="A155" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="21" t="b">
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D155" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F155" s="8" t="b">
         <v>0</v>
@@ -4022,10 +4022,10 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
+      <c r="A156" s="21"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D156" s="8" t="b">
         <v>0</v>
@@ -4037,16 +4037,16 @@
         <v>1</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D157" s="8" t="b">
         <v>0</v>
@@ -4064,10 +4064,10 @@
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D158" s="8" t="b">
         <v>1</v>
@@ -4085,10 +4085,10 @@
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D159" s="8" t="b">
         <v>0</v>
@@ -4106,10 +4106,10 @@
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B160" s="18" t="b">
+      <c r="A160" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160" s="21" t="b">
         <v>0</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -4131,8 +4131,8 @@
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="1" t="s">
         <v>2</v>
       </c>
@@ -4152,8 +4152,8 @@
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162" s="18"/>
-      <c r="B162" s="18"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
@@ -4173,8 +4173,8 @@
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="1" t="s">
         <v>4</v>
       </c>
@@ -4194,8 +4194,8 @@
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
@@ -4215,8 +4215,8 @@
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="5" t="s">
         <v>19</v>
       </c>
@@ -4236,8 +4236,8 @@
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A166" s="18"/>
-      <c r="B166" s="18"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="5" t="s">
         <v>20</v>
       </c>
@@ -4264,12 +4264,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I87:I120"/>
-    <mergeCell ref="A121:A154"/>
-    <mergeCell ref="B121:B154"/>
-    <mergeCell ref="I121:I154"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="B155:B159"/>
     <mergeCell ref="B160:B166"/>
     <mergeCell ref="A160:A166"/>
     <mergeCell ref="A2:A21"/>
@@ -4280,6 +4274,12 @@
     <mergeCell ref="B22:B52"/>
     <mergeCell ref="B53:B86"/>
     <mergeCell ref="B87:B120"/>
+    <mergeCell ref="I87:I120"/>
+    <mergeCell ref="A121:A154"/>
+    <mergeCell ref="B121:B154"/>
+    <mergeCell ref="I121:I154"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="B155:B159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
